--- a/Data/BatchJobDefinition.xlsx
+++ b/Data/BatchJobDefinition.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>プロセス#10</t>
+  </si>
+  <si>
+    <t>Execution Second</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -475,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -487,11 +491,12 @@
     <col min="2" max="2" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -505,10 +510,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -519,7 +527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -530,7 +538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -541,7 +549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -552,7 +560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -563,7 +571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -574,7 +582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -585,7 +593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -596,7 +604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -607,7 +615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
